--- a/faq.xlsx
+++ b/faq.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Tạo Chatbot AI\chatbox-support-fixed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Tạo Chatbot AI\chatbox-support-corrected\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593C8A76-FC89-4B22-A607-B00F6570D35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0DE38C-18C5-4906-9A53-00962C23E566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>question</t>
   </si>
@@ -63,6 +63,12 @@
   <si>
     <t>SwitchFBH5800# configure terminal
 SwitchFBH5800(config)# vlan 100,3996</t>
+  </si>
+  <si>
+    <t>Tính năng Port Isolate</t>
+  </si>
+  <si>
+    <t>Tính năng Port Isolate trên switch là một cơ chế cô lập lưu lượng giữa các cổng trong cùng một switch, nhằm tăng cường bảo mật và kiểm soát luồng dữ liệu trong mạng LAN</t>
   </si>
 </sst>
 </file>
@@ -121,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -129,6 +135,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,16 +440,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="91.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="145.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -493,6 +500,14 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
